--- a/实验内容/实验四/数据库增加部分测试.xlsx
+++ b/实验内容/实验四/数据库增加部分测试.xlsx
@@ -257,14 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.“id”，1,2,3。            2.null,1,2,3。                 3."id"，4，5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于1,3而言成功在数据库中插入一条数据，对于2而言由于数据库要求非空的内容为空，所以插入失败。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +270,14 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.“person”，1,2,3。            2.null,1,2,3。                 3."person"，4，5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于1,3而言成功在数据库中插入一条数据，对于2而言由于插入对象为空，所以插入失败。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -996,7 +996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="85.5">
+    <row r="8" spans="1:13" ht="71.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1019,22 +1019,22 @@
         <v>50</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:13">

--- a/实验内容/实验四/数据库增加部分测试.xlsx
+++ b/实验内容/实验四/数据库增加部分测试.xlsx
@@ -139,27 +139,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>com.blade.jdbc.ds.DataSourceFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">createDataSource(String propsPath) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对配置文件中的数据驱动信息，url信息，username信息以及password信息进行获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置了驱动，url,username以及password的配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.zaxxer.hikari.HikariConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDataSourceProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取出配置文件中的配置信息，从而进行配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件中加载出的配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件中的配置信息必须完整且合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.blade.jdbc.ar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T insert(Object entity,Take take)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行数据库插入操作，其中entity是要插入的对象，take是要插入的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入处理插入一条记录自动处理主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入数据时必须满足数据库的要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Step2:开发人员通过数据源仓库类加载属性信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.blade.jdbc.ds.DataSourceFactory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">createDataSource(String propsPath) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对配置文件中的数据驱动信息，url信息，username信息以及password信息进行获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置了驱动，url,username以及password的配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取配置文件中的配置信息</t>
+    <t>Step3:开发人员在JDBC连接池对加载出的配置信息进行配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step6:开发人员将插入内容输入到“数据操作类”的队形的插入方法中执行插入操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,42 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对于1,2,3三种测试用例，不管输入的信息是否合法，都可正确的进行获取。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step3:开发人员在JDBC连接池对加载出的配置信息进行配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.zaxxer.hikari.HikariConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addDataSourceProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取出配置文件中的配置信息，从而进行配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置文件中加载出的配置信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功对加载出的配置信息进行配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.jdbc.driverClassName=com.mysql.jdbc.Driver
 jdbc.url=jdbc:mysql://127.0.0.1/demo?useUnicode=true&amp;characterEncoding=utf-8&amp;zeroDateTimeBehavior=convertToNull
 jdbc.username=
@@ -225,55 +253,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.“person”，1,2,3。            2.null,1,2,3。                 3."person"，4，5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于1,2,3三种测试用例，不管输入的信息是否合法，都可正确的进行获取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取配置文件中的配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功对加载出的配置信息进行配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功在数据库中插入一条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对于2，3成功配置，对于1由于没有username，所以配置失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置文件中的配置信息必须完整且合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step6:开发人员将插入内容输入到“数据操作类”的队形的插入方法中执行插入操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.blade.jdbc.ar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T insert(Object entity,Take take)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行数据库插入操作，其中entity是要插入的对象，take是要插入的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入处理插入一条记录自动处理主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功在数据库中插入一条数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入数据时必须满足数据库的要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.“person”，1,2,3。            2.null,1,2,3。                 3."person"，4，5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:J17"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -919,40 +919,40 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="409.5">
@@ -960,40 +960,40 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="71.25">
@@ -1001,46 +1001,43 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
-        <v>4</v>
-      </c>
       <c r="B9" s="4"/>
       <c r="D9" s="4"/>
       <c r="F9" s="6"/>
@@ -1051,9 +1048,6 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
-        <v>5</v>
-      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1063,9 +1057,6 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
-        <v>6</v>
-      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
